--- a/2025.04.04/dist/Krivoruchenko_SK/asymptotics_test/asymptotics.xlsx
+++ b/2025.04.04/dist/Krivoruchenko_SK/asymptotics_test/asymptotics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\C\Homework\2025.04.04\dist\Krivoruchenko_SK\logs\logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\C\Homework\2025.04.04\dist\Krivoruchenko_SK\asymptotics_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7642B2A8-9CA3-4BB0-A833-9CA6F02F3444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761BE694-3888-4BBD-A570-B035E75EBFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18465" windowHeight="10996" xr2:uid="{602412E5-BBC1-4300-9A07-341DAF98C709}"/>
   </bookViews>
@@ -441,15 +441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E86447-B7F8-4FD3-B41E-D9E0BF5B64A2}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1">
         <v>1000</v>
       </c>
@@ -495,8 +495,11 @@
       <c r="P1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q1">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -512,7 +515,7 @@
         <v>4311.3974358974356</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -532,7 +535,7 @@
         <v>416.71499380421312</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3000</v>
       </c>
@@ -548,7 +551,7 @@
         <v>126.61483433734939</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4000</v>
       </c>
@@ -564,7 +567,7 @@
         <v>52.356998287404636</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5000</v>
       </c>
@@ -580,7 +583,7 @@
         <v>26.894513755598208</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6000</v>
       </c>
@@ -596,7 +599,7 @@
         <v>15.402079325822111</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7000</v>
       </c>
@@ -612,7 +615,7 @@
         <v>9.8462551970486611</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8000</v>
       </c>
@@ -623,8 +626,12 @@
         <f>P16/I9</f>
         <v>6.5754648730031473</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q9" s="3">
+        <f>Q17/I9</f>
+        <v>8.0389691648906005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9000</v>
       </c>
@@ -636,7 +643,7 @@
         <v>4.6154236776371773</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -648,7 +655,7 @@
         <v>3.3367631445779544</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11000</v>
       </c>
@@ -660,7 +667,7 @@
         <v>2.5275195225890825</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12000</v>
       </c>
@@ -673,7 +680,7 @@
         <v>1.9567157752641622</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13000</v>
       </c>
@@ -685,7 +692,7 @@
         <v>1.5418108961868389</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14000</v>
       </c>
@@ -697,12 +704,20 @@
         <v>1.2312054712269986</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15000</v>
       </c>
       <c r="P16" s="1">
         <v>3362.89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <v>16000</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>4111.37</v>
       </c>
     </row>
   </sheetData>
